--- a/meta/src/meta_carrier_bom_rev1.xlsx
+++ b/meta/src/meta_carrier_bom_rev1.xlsx
@@ -18,11 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">META_CARRIER_REV1_SCH!$A$1:$J$53</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="216">
   <si>
     <t>Item</t>
   </si>
@@ -192,9 +193,6 @@
     <t>BTH-120-01-F-D-A</t>
   </si>
   <si>
-    <t>J6,J11,J12,J15</t>
-  </si>
-  <si>
     <t>BSH120</t>
   </si>
   <si>
@@ -534,16 +532,120 @@
     <t>CAP CER 4.7UF 10V X7R 0805</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C88</t>
-    </r>
+    <t>CAP CER 22PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>Quant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDR_1X2_TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDR_1X3_TH</t>
+  </si>
+  <si>
+    <t>RES SMD 15.4K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Fixed Inductors WE-HCI Flat SMD 5040 2.2uH 7.5A 11.3mOhm</t>
+  </si>
+  <si>
+    <t>RES SMD 10.2K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RES SMD 12.7K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RES SMD 100 OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100RL</t>
+  </si>
+  <si>
+    <t>RES SMD 49.9 OHM 1% 1/10W 0402</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 50V X7R 0402</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>R77</t>
+  </si>
+  <si>
+    <t>TAIYO YUDEN</t>
+  </si>
+  <si>
+    <t>CAP CER 0.47UF 10V X5R 0402</t>
+  </si>
+  <si>
+    <t>CAP CER 0.33UF 10V X5R 0402</t>
+  </si>
+  <si>
+    <t>Resistor 100R 1/16W 1% SMD 0402</t>
+  </si>
+  <si>
+    <t>C1,C4,C6,C7,C8,C9,C13,C16,C17,C24,C28,C29,C30,C31,C32,C33,C34,C35,C36,C37,C41,C49,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C66,C82,C83,C84,C85,C86,C114,C115,C117,C118,C131,C152,C153,C155,C156,C174,C175,C176,C177</t>
+  </si>
+  <si>
+    <t>CAP, CERM, 120 pF, 50 V, ±5%, C0G/NP0, 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 120PF 50V C0G/NP0 0805</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0805C121J5GACTU</t>
+  </si>
+  <si>
+    <t>CAP CER 160PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>RES SMD 3.01K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RES SMD 22.1K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 68PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>RES SMD 10.2K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710K2L</t>
+  </si>
+  <si>
+    <t>FIXED BUG</t>
+  </si>
+  <si>
+    <t>RES SMD 43.2K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R6,R13,R16,R24,R25,R34,R35,R54,R84,R89,R104,R105,R110</t>
+  </si>
+  <si>
+    <t>RES SMD 39K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RES SMD 56K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RES SMD 9.31K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>R5,R14,R15,R27,R32,R42,R43,R44,R45,R50,R51,R52,R53,R74,R75,R76,R78,R97,R98,R111,R112,R130,R131,R132,R133,R136,R137,R139,R140,R141,R143,R144, R8,R12,R17,R33,R36,R120,R135</t>
+  </si>
+  <si>
+    <t>Stupid sizing, fix in future</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -552,18 +654,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>C2,C3,C5,C12,C14,C15,C18,C19,C27,C38,C52,C63</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C91,C92</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -572,18 +666,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>R7,R23,R26,R41,R85,R88,R103,R106,R109</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C95</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -592,18 +678,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>C89,C90,C93,C94,C108,C109,C111,C112,C158,C159,C161,C162,C167,C168,C171,C172</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C105,C106,C107,C110,C160,C163,C164,C165,C166</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -612,428 +690,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,</t>
+      <t>C88,C91,C92,C95,C105,C106,C107,C110,C160,C163,C164,C165,C166,C169,C170,C173</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C169</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C170</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C173</t>
-    </r>
-  </si>
-  <si>
-    <t>CAP CER 22PF 50V C0G/NP0 0603</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C89,C90</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C93</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C94</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C108</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C109,C111,C112,C158,C159,C161,C162,C167</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C168</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C171</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C172</t>
-    </r>
-  </si>
-  <si>
-    <t>Quant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HDR_1X2_TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HDR_1X3_TH</t>
-  </si>
-  <si>
-    <t>RES SMD 15.4K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>Fixed Inductors WE-HCI Flat SMD 5040 2.2uH 7.5A 11.3mOhm</t>
-  </si>
-  <si>
-    <t>RES SMD 10.2K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RES SMD 12.7K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RES SMD 100 OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>RC0402FR-07100RL</t>
-  </si>
-  <si>
-    <t>RES SMD 49.9 OHM 1% 1/10W 0402</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 50V X7R 0402</t>
-  </si>
-  <si>
-    <t>RES SMD 1K OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>R77</t>
-  </si>
-  <si>
-    <t>TAIYO YUDEN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C2,C3,C5,C12,C14,C15,C18,C19,C27</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C38</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C63</t>
-    </r>
-  </si>
-  <si>
-    <t>CAP CER 0.47UF 10V X5R 0402</t>
-  </si>
-  <si>
-    <t>CAP CER 0.33UF 10V X5R 0402</t>
-  </si>
-  <si>
-    <t>Resistor 100R 1/16W 1% SMD 0402</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R23,R26,R41,R85,R88,R103,R106,R109</t>
-    </r>
-  </si>
-  <si>
-    <t>C1,C4,C6,C7,C8,C9,C13,C16,C17,C24,C28,C29,C30,C31,C32,C33,C34,C35,C36,C37,C41,C49,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C66,C82,C83,C84,C85,C86,C114,C115,C117,C118,C131,C152,C153,C155,C156,C174,C175,C176,C177</t>
-  </si>
-  <si>
-    <t>CAP, CERM, 120 pF, 50 V, ±5%, C0G/NP0, 0603</t>
-  </si>
-  <si>
-    <t>CAP CER 120PF 50V C0G/NP0 0805</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>C0805C121J5GACTU</t>
-  </si>
-  <si>
-    <t>CAP CER 160PF 50V C0G/NP0 0603</t>
-  </si>
-  <si>
-    <t>RES SMD 3.01K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RES SMD 22.1K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>CAP CER 68PF 50V C0G/NP0 0603</t>
-  </si>
-  <si>
-    <t>RES SMD 10.2K OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>RC0402FR-0710K2L</t>
-  </si>
-  <si>
-    <t>FIXED BUG</t>
-  </si>
-  <si>
-    <t>RES SMD 43.2K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R6,R13,R16,R24,R25,R34,R35,R54,R84,R89,R104,R105,R110</t>
-  </si>
-  <si>
-    <t>RES SMD 39K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RES SMD 56K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RES SMD 9.31K OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>CAP CER 4.7PF 50V C0G/NP0 0603</t>
-  </si>
-  <si>
-    <t>R5,R14,R15,R27,R32,R42,R43,R44,R45,R50,R51,R52,R53,R74,R75,R76,R78,R97,R98,R111,R112,R130,R131,R132,R133,R136,R137,R139,R140,R141,R143,R144, R8,R12,R17,R33,R36,R120,R135</t>
-  </si>
-  <si>
-    <t>Stupid sizing, fix in future</t>
+  </si>
+  <si>
+    <t>MOD1</t>
+  </si>
+  <si>
+    <t>MOD2</t>
+  </si>
+  <si>
+    <t>MOD3</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J11,J12,J15</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1224,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1586,9 +1259,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1961,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,42 +1648,52 @@
     <col min="7" max="7" width="27.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>26</v>
       </c>
@@ -2021,25 +1701,25 @@
         <v>38</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44</v>
       </c>
@@ -2047,84 +1727,84 @@
         <v>48</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>39</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>107</v>
+      <c r="C4" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="D4" s="2">
         <v>49.9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>110</v>
+      <c r="C5" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>22</v>
       </c>
@@ -2132,23 +1812,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="G6" s="9">
         <v>22102021</v>
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>20</v>
       </c>
@@ -2156,37 +1836,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="9">
         <v>3929902</v>
       </c>
       <c r="H7" s="4"/>
       <c r="J7" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>51</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>192</v>
+      <c r="C8" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>160</v>
+      <c r="E8" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
@@ -2195,27 +1875,27 @@
         <v>8</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
@@ -2224,27 +1904,27 @@
         <v>40</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>189</v>
+      <c r="E10" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>7</v>
@@ -2254,103 +1934,103 @@
       </c>
       <c r="H10" s="4"/>
       <c r="J10" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>188</v>
+      <c r="E11" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>28</v>
       </c>
       <c r="B12" s="2">
         <v>13</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>205</v>
+      <c r="C12" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="4"/>
       <c r="J12" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>41</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>111</v>
+      <c r="C13" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>201</v>
+        <v>79</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>202</v>
+        <v>118</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>197</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>15</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2364,39 +2044,39 @@
       </c>
       <c r="H14" s="4"/>
       <c r="J14" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>27</v>
       </c>
       <c r="B15" s="2">
         <v>32</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>210</v>
+      <c r="C15" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>164</v>
+        <v>77</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -2404,25 +2084,25 @@
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>163</v>
+      <c r="E16" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2433,25 +2113,25 @@
         <v>9</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2461,26 +2141,26 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2490,14 +2170,14 @@
       <c r="B19" s="2">
         <v>9</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>20</v>
@@ -2506,10 +2186,10 @@
         <v>21</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2519,26 +2199,26 @@
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>196</v>
+        <v>190</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2548,24 +2228,24 @@
       <c r="B21" s="2">
         <v>16</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="4"/>
       <c r="J21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2575,14 +2255,14 @@
       <c r="B22" s="2">
         <v>5</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>197</v>
+      <c r="E22" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>7</v>
@@ -2591,10 +2271,10 @@
         <v>17</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2604,26 +2284,26 @@
       <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.75" x14ac:dyDescent="0.25">
@@ -2633,24 +2313,24 @@
       <c r="B24" s="2">
         <v>16</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="G24" s="9">
         <v>744316220</v>
       </c>
       <c r="H24" s="4"/>
       <c r="J24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -2660,14 +2340,14 @@
       <c r="B25" s="2">
         <v>40</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -2676,10 +2356,10 @@
         <v>34</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2689,26 +2369,26 @@
       <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -2719,13 +2399,13 @@
         <v>16</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
@@ -2734,10 +2414,10 @@
         <v>44</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2747,26 +2427,26 @@
       <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="H28" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2776,14 +2456,14 @@
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>166</v>
+      <c r="E29" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>7</v>
@@ -2792,10 +2472,10 @@
         <v>27</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2805,26 +2485,26 @@
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="H30" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2834,26 +2514,26 @@
       <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="H31" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2863,14 +2543,14 @@
       <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>209</v>
+      <c r="E32" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
@@ -2879,27 +2559,27 @@
         <v>24</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>9</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>165</v>
+      <c r="E33" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>30</v>
@@ -2909,10 +2589,10 @@
       </c>
       <c r="H33" s="4"/>
       <c r="J33" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2920,28 +2600,28 @@
         <v>5</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="H34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>13</v>
       </c>
@@ -2949,13 +2629,13 @@
         <v>16</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>169</v>
+      <c r="E35" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
@@ -2964,56 +2644,56 @@
         <v>42</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="H36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>16</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>200</v>
+      <c r="E37" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>20</v>
@@ -3023,39 +2703,39 @@
       </c>
       <c r="H37" s="4"/>
       <c r="J37" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="H38" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>50</v>
       </c>
@@ -3063,23 +2743,23 @@
         <v>2</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="H39" s="4"/>
       <c r="J39" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>19</v>
       </c>
@@ -3087,23 +2767,26 @@
         <v>4</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H40" s="4"/>
       <c r="J40" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>51</v>
       </c>
@@ -3111,23 +2794,23 @@
         <v>3</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="G41" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H41" s="4"/>
       <c r="J41" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>18</v>
       </c>
@@ -3148,10 +2831,10 @@
       </c>
       <c r="H42" s="4"/>
       <c r="J42" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>21</v>
       </c>
@@ -3159,23 +2842,23 @@
         <v>2</v>
       </c>
       <c r="C43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H43" s="4"/>
       <c r="J43" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>52</v>
       </c>
@@ -3183,23 +2866,23 @@
         <v>1</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="H44" s="4"/>
       <c r="J44" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -3220,10 +2903,10 @@
       </c>
       <c r="H45" s="4"/>
       <c r="J45" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>23</v>
       </c>
@@ -3231,24 +2914,24 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="H46" s="4"/>
-      <c r="I46" s="19"/>
+      <c r="I46" s="18"/>
       <c r="J46" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -3256,23 +2939,23 @@
         <v>18</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="G47" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H47" s="4"/>
       <c r="J47" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>25</v>
       </c>
@@ -3280,20 +2963,20 @@
         <v>1</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="H48" s="4"/>
       <c r="J48" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -3304,20 +2987,20 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="H49" s="4"/>
       <c r="J49" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -3328,20 +3011,20 @@
         <v>5</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="G50" s="9">
         <v>5017</v>
       </c>
       <c r="H50" s="4"/>
       <c r="J50" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3352,20 +3035,20 @@
         <v>4</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="H51" s="4"/>
       <c r="J51" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3376,20 +3059,20 @@
         <v>2</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="H52" s="4"/>
       <c r="J52" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
